--- a/data/trans_dic/P24_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con problemas de sueño con bastante o mucha frecuencia</t>
+          <t>Población con problemas de sueño con bastante o mucha frecuencia (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>47,74%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>26,21%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>24,76%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>28,42%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>25,91%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>45,25%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,65; 32,27</t>
+          <t>14,91; 34,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,36; 27,04</t>
+          <t>11,4; 26,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,82; 29,17</t>
+          <t>18,98; 32,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,81; 26,68</t>
+          <t>15,86; 26,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,82; 37,1</t>
+          <t>30,23; 61,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,35; 33,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,71; 37,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,23; 36,3</t>
+          <t>20,93; 36,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,35; 33,13</t>
+          <t>22,82; 38,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>37,7; 50,47</t>
+          <t>25,73; 36,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,57; 31,09</t>
+          <t>25,74; 35,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,45; 30,2</t>
+          <t>38,87; 56,39</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>24,38; 31,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>21,71; 28,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>34,54; 43,17</t>
+          <t>20,16; 32,66</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>19,49; 30,36</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>24,62; 33,11</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>22,62; 29,82</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>38,74; 55,07</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>45,73%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>35,89%</t>
+          <t>28,06%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>31,06%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>26,18%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>25,76%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>32,66%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 19,89</t>
+          <t>11,17; 19,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,83; 30,42</t>
+          <t>21,24; 33,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,23; 24,96</t>
+          <t>17,89; 25,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,47; 22,57</t>
+          <t>15,36; 22,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,26; 31,93</t>
+          <t>21,41; 35,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,0; 40,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,46; 38,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,98; 33,99</t>
+          <t>33,41; 45,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,34; 37,0</t>
+          <t>30,57; 40,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,51; 50,51</t>
+          <t>26,93; 34,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,49; 29,19</t>
+          <t>30,0; 37,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,88; 33,08</t>
+          <t>33,24; 44,41</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>23,38; 28,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>23,03; 28,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>32,56; 39,21</t>
+          <t>24,77; 32,53</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>27,59; 35,07</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>23,46; 29,28</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>23,18; 28,43</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>29,25; 36,85</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>30,43%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>27,31%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>25,79%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>25,59%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>23,75%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>24,67%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,52; 28,04</t>
+          <t>16,87; 29,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,29; 27,15</t>
+          <t>15,86; 26,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,27; 24,01</t>
+          <t>15,9; 24,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 20,45</t>
+          <t>13,45; 20,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,28; 28,55</t>
+          <t>15,5; 27,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,72; 36,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,81; 33,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,5; 33,34</t>
+          <t>26,13; 38,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,87; 34,14</t>
+          <t>25,31; 35,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,67; 38,6</t>
+          <t>26,44; 34,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,15; 31,0</t>
+          <t>26,68; 34,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,18; 28,76</t>
+          <t>24,14; 34,23</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>21,74; 27,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>20,96; 26,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>22,95; 31,57</t>
+          <t>23,5; 31,73</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>22,22; 29,88</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>22,66; 29,04</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>21,26; 26,35</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>21,28; 28,88</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>26,66%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>29,06%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>24,66%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>29,83%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 22,77</t>
+          <t>17,49; 23,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,19; 26,31</t>
+          <t>21,87; 31,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,2; 23,79</t>
+          <t>15,36; 23,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,21; 20,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,44; 30,37</t>
+          <t>21,34; 31,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,33; 36,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,25; 34,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,9; 32,86</t>
+          <t>29,72; 36,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,65; 33,3</t>
+          <t>28,36; 36,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,52; 45,42</t>
+          <t>25,4; 35,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,36; 28,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,56; 29,62</t>
+          <t>29,41; 39,84</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>24,12; 27,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>23,19; 26,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>32,89; 37,36</t>
+          <t>24,5; 29,08</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>26,0; 32,45</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>20,92; 28,27</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>26,53; 33,24</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20,14%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24,08%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21,23%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26,78%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33,56%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32,65%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30,7%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31,61%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36,59%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>28,45%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>26,05%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>25,15%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>31,81%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17,77; 22,83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21,34; 27,36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19,0; 23,79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16,26; 20,84</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23,48; 31,3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31,17; 35,92</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30,19; 35,45</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28,41; 33,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>29,15; 34,03</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33,99; 39,86</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>25,41; 28,72</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>26,54; 30,59</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>24,55; 27,88</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>23,62; 26,91</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>29,37; 34,26</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas de sueño con bastante o mucha frecuencia (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>53769</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>61056</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>132572</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>149935</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>183691</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>74203</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>127363</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>197462</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>268825</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>308057</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>127972</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>188419</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>330034</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>418759</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>491748</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>33779; 77232</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>38684; 88535</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>100636; 171278</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>114450; 189318</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>133465; 272857</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>54783; 96667</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>96228; 163784</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>162383; 232983</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>230196; 314489</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>250821; 363864</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>98420; 159460</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>148291; 230990</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>285915; 384469</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>365574; 481888</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>421070; 598514</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>99795</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>243061</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>260351</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>302010</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>285501</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>283481</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>357126</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>377300</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>502698</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>417157</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>383276</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>600187</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>637651</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>804707</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>702658</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>72707; 128975</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>198121; 313617</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>215432; 306035</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>248847; 367217</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>228612; 378365</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>238905; 325571</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>305686; 405571</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>331477; 427647</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>450920; 565070</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>360100; 481215</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>338346; 444318</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>533254; 677723</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>571178; 713042</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>724002; 888104</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>629318; 792801</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>101357</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>146910</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>169801</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>181182</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>168046</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>168328</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>236066</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>287619</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>353528</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>258266</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>269685</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>382976</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>457420</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>534710</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>426312</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>76859; 134034</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>113459; 188156</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>134460; 210837</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>146533; 219115</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>128810; 225307</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>138911; 202163</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>194687; 276717</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>248978; 329149</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>309944; 397301</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>216517; 307059</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>231999; 313303</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>329847; 443707</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>405059; 519105</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>478661; 593218</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>367692; 499031</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>439352</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>378470</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>165867</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>282280</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>681460</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>451124</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>232413</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>337758</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1120812</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>829594</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>398279</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>620038</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>369781; 505632</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>318653; 459989</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>130774; 203242</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>233467; 347052</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>621132; 755477</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>396442; 511539</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>193852; 269444</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>289606; 392285</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1029974; 1222417</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>742222; 926465</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>337797; 456562</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>551360; 690894</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>534.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>439.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>512.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>542.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>462.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>799.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>704.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>815.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>804.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>729.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>694273</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>829496</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>728591</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>633126</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>919518</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1207472</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1171679</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1094794</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1125051</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1321239</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1901745</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2001175</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1823384</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1758177</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>2240756</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>612569; 787020</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>735209; 942584</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>651953; 816521</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>557835; 715075</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>806235; 1074967</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1121486; 1292510</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1083506; 1272200</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1013406; 1180507</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1037601; 1211348</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1227080; 1439122</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1790243; 2023679</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1866876; 2151673</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1718060; 1951187</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1650949; 1881372</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>2068979; 2413618</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
